--- a/day_5_pgg/invoices_report.xlsx
+++ b/day_5_pgg/invoices_report.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$A:$C</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -441,144 +443,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C2" t="n">
-        <v>53.45999999999999</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C3" t="n">
-        <v>25.74</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C4" t="n">
-        <v>48.57</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C5" t="n">
-        <v>18.81</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C6" t="n">
-        <v>9.9</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C7" t="n">
-        <v>10.89</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C8" t="n">
-        <v>17.84</v>
+        <v>22.77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C9" t="n">
-        <v>8.91</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C10" t="n">
-        <v>1.98</v>
+        <v>27.77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C11" t="n">
-        <v>6.930000000000001</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C12" t="n">
-        <v>24.75</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="13">
@@ -588,215 +590,215 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>5.94</v>
+        <v>6.930000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C14" t="n">
-        <v>57.41999999999999</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C15" t="n">
-        <v>76.25999999999999</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C16" t="n">
-        <v>55.44</v>
+        <v>37.62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C17" t="n">
-        <v>42.57</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C18" t="n">
-        <v>72.26999999999998</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C19" t="n">
-        <v>103.95</v>
+        <v>53.46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C20" t="n">
-        <v>102.98</v>
+        <v>37.62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C21" t="n">
-        <v>103.01</v>
+        <v>57.41999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C22" t="n">
-        <v>127.98</v>
+        <v>76.25999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C23" t="n">
-        <v>85.14</v>
+        <v>55.44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C24" t="n">
-        <v>35.64</v>
+        <v>42.57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C25" t="n">
-        <v>39.59999999999999</v>
+        <v>72.26999999999998</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C26" t="n">
-        <v>42.61</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C27" t="n">
-        <v>36.66</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C28" t="n">
-        <v>40.59</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C29" t="n">
         <v>6.930000000000001</v>
@@ -805,953 +807,960 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C30" t="n">
-        <v>32.75</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C31" t="n">
-        <v>5.94</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C32" t="n">
-        <v>25.74</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C33" t="n">
-        <v>30.69</v>
+        <v>19.83</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C34" t="n">
-        <v>17.82</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C35" t="n">
-        <v>9.9</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C36" t="n">
-        <v>28.71</v>
+        <v>6.930000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C37" t="n">
-        <v>11.88</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C38" t="n">
-        <v>0.99</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C39" t="n">
-        <v>1.98</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C40" t="n">
-        <v>22.77</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C41" t="n">
-        <v>15.84</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C42" t="n">
-        <v>17.91</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C43" t="n">
-        <v>5.94</v>
+        <v>35.64</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C44" t="n">
-        <v>6.930000000000001</v>
+        <v>39.59999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C45" t="n">
-        <v>9.9</v>
+        <v>42.61</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C46" t="n">
-        <v>17.83</v>
+        <v>36.66</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C47" t="n">
-        <v>24.75</v>
+        <v>40.59</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C48" t="n">
-        <v>10.89</v>
+        <v>53.45999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C49" t="n">
-        <v>11.89</v>
+        <v>25.74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C50" t="n">
-        <v>37.62</v>
+        <v>48.57</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C51" t="n">
-        <v>41.6</v>
+        <v>18.81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C52" t="n">
-        <v>19.8</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C53" t="n">
-        <v>53.46</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C54" t="n">
-        <v>37.62</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C55" t="n">
-        <v>11.88</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C56" t="n">
-        <v>6.93</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C57" t="n">
-        <v>8.91</v>
+        <v>17.83</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C58" t="n">
-        <v>24.77</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C59" t="n">
-        <v>24.75</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C60" t="n">
-        <v>8.91</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C61" t="n">
-        <v>1.98</v>
+        <v>6.930000000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>2011</v>
       </c>
       <c r="C62" t="n">
-        <v>12.9</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C63" t="n">
-        <v>0.99</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C64" t="n">
-        <v>15.84</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C65" t="n">
-        <v>0.99</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C66" t="n">
-        <v>1.98</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C67" t="n">
-        <v>22.77</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C68" t="n">
-        <v>11.88</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C69" t="n">
-        <v>5.94</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C70" t="n">
-        <v>7.930000000000001</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>2012</v>
       </c>
       <c r="C71" t="n">
-        <v>24.75</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C72" t="n">
-        <v>10.89</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C73" t="n">
-        <v>9.9</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>2011</v>
       </c>
       <c r="C74" t="n">
-        <v>12.87</v>
+        <v>17.84</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>2012</v>
       </c>
       <c r="C75" t="n">
-        <v>19.83</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>2013</v>
       </c>
       <c r="C76" t="n">
-        <v>36.75</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>2009</v>
       </c>
       <c r="C77" t="n">
-        <v>8.91</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C78" t="n">
-        <v>15.88</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>2012</v>
       </c>
       <c r="C79" t="n">
-        <v>0.99</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>2013</v>
       </c>
       <c r="C80" t="n">
-        <v>15.84</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>2009</v>
       </c>
       <c r="C81" t="n">
-        <v>5.94</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>2010</v>
       </c>
       <c r="C82" t="n">
-        <v>6.930000000000001</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C83" t="n">
-        <v>15.84</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C84" t="n">
-        <v>8.91</v>
+        <v>24.77</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C85" t="n">
-        <v>1.98</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C86" t="n">
-        <v>10.89</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C87" t="n">
-        <v>15.84</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C88" t="n">
-        <v>8.91</v>
+        <v>22.77</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C89" t="n">
-        <v>15.84</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C90" t="n">
-        <v>8.91</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C91" t="n">
-        <v>11.88</v>
+        <v>7.930000000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>0.99</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>2009</v>
       </c>
       <c r="C93" t="n">
-        <v>1.98</v>
+        <v>103.95</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>2010</v>
       </c>
       <c r="C94" t="n">
-        <v>27.77</v>
+        <v>102.98</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C95" t="n">
-        <v>11.88</v>
+        <v>103.01</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C96" t="n">
-        <v>0.99</v>
+        <v>127.98</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C97" t="n">
-        <v>32.75</v>
+        <v>85.14</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C98" t="n">
-        <v>11.88</v>
+        <v>25.74</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C99" t="n">
-        <v>0.99</v>
+        <v>30.69</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C100" t="n">
-        <v>11.88</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C101" t="n">
-        <v>0.99</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>2013</v>
       </c>
       <c r="C102" t="n">
-        <v>24.75</v>
+        <v>28.71</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A:C">
+    <filterColumn colId="0">
+      <filters blank="0">
+        <filter val="Austria"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>